--- a/picam-stdev.xlsx
+++ b/picam-stdev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay\Downloads\autodrive-master\autodrive-master\rpi\dataset5-nopause\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90FE1B8-7260-4E4B-B4E7-B29012D52612}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5EF69C-0308-49F0-BDED-EC6F93D61EC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="2175" windowWidth="29040" windowHeight="20520" xr2:uid="{756D1294-9C9E-4808-914C-10ADF3727689}"/>
+    <workbookView xWindow="9315" yWindow="1770" windowWidth="29040" windowHeight="20520" xr2:uid="{756D1294-9C9E-4808-914C-10ADF3727689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>stdev picam</t>
   </si>
   <si>
     <t>pause time</t>
+  </si>
+  <si>
+    <t>20 s/lap</t>
+  </si>
+  <si>
+    <t>avg picam</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>stdev picam</c:v>
+                  <c:v>avg picam</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -213,22 +219,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.6018953085740524</c:v>
+                  <c:v>6.8975961538461537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0357657543733776</c:v>
+                  <c:v>9.9444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.711331064868236</c:v>
+                  <c:v>16.838709677419356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.422524024614226</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.336730408611892</c:v>
+                  <c:v>9.3214285714285712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.406702239811889</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,13 +995,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1321,72 +1327,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AE16F1-170D-4983-ADF7-DDE266BE8802}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.6018953085740524</v>
+        <v>6.8975961538461537</v>
+      </c>
+      <c r="C2">
+        <v>5.5900919490152621</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>8.0357657543733776</v>
+        <v>9.9444444444444446</v>
+      </c>
+      <c r="C3">
+        <v>7.1251844866118352</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10.711331064868236</v>
+        <v>16.838709677419356</v>
+      </c>
+      <c r="C4">
+        <v>13.120205217382713</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>11.422524024614226</v>
+        <v>11.5</v>
+      </c>
+      <c r="C5">
+        <v>9.5229984773704555</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>12.336730408611892</v>
+        <v>9.3214285714285712</v>
+      </c>
+      <c r="C6">
+        <v>8.8396117710981095</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>16.406702239811889</v>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
